--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.3.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.3.xlsx
@@ -34,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="400">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -2130,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:L65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G91" activeCellId="0" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2300,7 +2301,7 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="100.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="262.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="262.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -2352,7 +2353,7 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="220.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="220.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -2377,7 +2378,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3963,7 +3964,7 @@
       <c r="J69" s="27"/>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>64</v>
       </c>
@@ -4415,12 +4416,9 @@
   </sheetData>
   <autoFilter ref="A1:K85">
     <filterColumn colId="3">
-      <filters>
-        <filter val="Respeto Enf. CC y Camara fria"/>
-        <filter val="Respeto"/>
-        <filter val="Respeto Enf. CC"/>
-        <filter val="Respeto Camara Fria"/>
-      </filters>
+      <customFilters and="true">
+        <customFilter operator="equal" val="Materiales Temporales"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4953,7 +4951,7 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5116,8 +5114,8 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5568,7 +5566,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" customFormat="false" ht="149.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="n">
         <v>64</v>
       </c>
@@ -5588,7 +5586,9 @@
       <c r="G13" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>217</v>
       </c>
@@ -5814,9 +5814,9 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -8226,16 +8226,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.63967611336032"/>
